--- a/biology/Botanique/Kingdoniaceae/Kingdoniaceae.xlsx
+++ b/biology/Botanique/Kingdoniaceae/Kingdoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Kingdoniaceae est une famille de plantes dicotylédones. Elle ne comprend qu'une espèce Kingdonia uniflora. Ce sont des plantes herbacées de Chine.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Kingdonia, donné « en l'honneur de Mademoiselle Marshall Ward, dont le frère F. Kingdon Ward (en), découvrit la plante à la frontière entre la Chine et le Tibet »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Kingdonia, donné « en l'honneur de Mademoiselle Marshall Ward, dont le frère F. Kingdon Ward (en), découvrit la plante à la frontière entre la Chine et le Tibet ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est acceptée, optionnellement, en classification phylogénétique APG (1998)[2] et classification phylogénétique APG II (2003)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est acceptée, optionnellement, en classification phylogénétique APG (1998) et classification phylogénétique APG II (2003).
 Alternativement, cette espèce peut être incluse dans la famille Circaeasteraceae.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Circaeasteraceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Circaeasteraceae.
 </t>
         </is>
       </c>
